--- a/biology/Zoologie/Cercocebus_torquatus/Cercocebus_torquatus.xlsx
+++ b/biology/Zoologie/Cercocebus_torquatus/Cercocebus_torquatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercocèbe à collier blanc, Mangabey à collier blanc, Mangabey à collier
-Cercocebus torquatus est une espèce de singes catarhiniens de la famille des cercopithecidés. Il est appelé Cercocèbe à collier blanc[1],[2] ou Mangabey à collier blanc[1],[3], Mangabey à collier[2] et parfois Cercocèbe enfumé [1] ou Mangabey enfumé [1],[3]. L'espèce du Mangabey Couronné (Cercocebus lunulatus) était auparavant parfois considéré comme une sous-espèce de Cercocebus torquatus[2].
+Cercocebus torquatus est une espèce de singes catarhiniens de la famille des cercopithecidés. Il est appelé Cercocèbe à collier blanc, ou Mangabey à collier blanc Mangabey à collier et parfois Cercocèbe enfumé  ou Mangabey enfumé ,. L'espèce du Mangabey Couronné (Cercocebus lunulatus) était auparavant parfois considéré comme une sous-espèce de Cercocebus torquatus.
 Le mâle de ce singe à longue queue peut atteindre 10 kg.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principales populations se trouvent dans les bassins côtiers du Cameroun, de la Guinée équatoriale et du Gabon mais il en existe aussi au sud du Nigeria et dans l'ouest de la république démocratique du Congo[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principales populations se trouvent dans les bassins côtiers du Cameroun, de la Guinée équatoriale et du Gabon mais il en existe aussi au sud du Nigeria et dans l'ouest de la république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le peintre flamand Pieter Brueghel l'Ancien a représenté deux mangabeys à collier captifs dans son célèbre tableau : La Ville d'Anvers et les deux Singes.
 </t>
